--- a/מהומות בנגב על רקע נטיעות קקל.xlsx
+++ b/מהומות בנגב על רקע נטיעות קקל.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GoogleTrendsTerrorWaves\GoogleTrendsTerrorWaves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CEC5D-1AF1-42A1-AE96-59A1CBEAC50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17943E7-9FC3-4AF5-B07D-665D44D4D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DDF36BBD-3D61-4430-945F-EEBD733E955D}"/>
   </bookViews>
@@ -1526,67 +1526,67 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE282B5B-EF75-40A0-97CC-5D4B46E5FD52}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4030,7 +4030,7 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>57</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>100</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E51">
         <v>33</v>
@@ -4200,7 +4200,7 @@
         <v>37</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52">
         <v>45</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>55</v>
@@ -4251,7 +4251,7 @@
         <v>69</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E55">
         <v>45</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>81</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58">
         <v>30</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59">
         <v>30</v>
@@ -4336,7 +4336,7 @@
         <v>41</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61">
         <v>90</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62">
         <v>0</v>
